--- a/Chapter1/C_int_range.xlsx
+++ b/Chapter1/C_int_range.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xing9\Documents\GitHub\myself\The-C-Programming-Language-2nd\Chapter1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B0CA56-FC54-4853-9342-79CA377D0F01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE9B49A-2048-49D6-88E3-7AA5D1798734}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{60F56680-11CF-4565-957E-BDB22D541466}"/>
   </bookViews>
@@ -197,17 +197,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142383E9-5CF2-4B42-8FCC-CCFE882BB889}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -550,32 +550,25 @@
     <col min="17" max="17" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,23 +601,8 @@
         <v>2</v>
       </c>
       <c r="L2" s="8"/>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -657,23 +635,8 @@
         <v>127</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="M3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="10">
-        <v>-127</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -706,23 +669,8 @@
         <v>255</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -755,23 +703,8 @@
         <v>32767</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5">
-        <v>16</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5" s="10">
-        <v>-32767</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -804,23 +737,8 @@
         <v>65535</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>16</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -853,23 +771,8 @@
         <v>2147483647</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7">
-        <v>16</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7" s="10">
-        <v>-32767</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>32767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -902,23 +805,8 @@
         <v>4294967295</v>
       </c>
       <c r="L8" s="7"/>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>16</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -951,23 +839,8 @@
         <v>15</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9">
-        <v>32</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9" s="11">
-        <v>-2147483647</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>2147483647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1000,23 +873,8 @@
         <v>16</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10">
-        <v>32</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1049,23 +907,8 @@
         <v>15</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11">
-        <v>64</v>
-      </c>
-      <c r="O11">
-        <v>8</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1098,19 +941,200 @@
         <v>16</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>-127</v>
+      </c>
+      <c r="E16" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-32767</v>
+      </c>
+      <c r="E18" s="2">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>-32767</v>
+      </c>
+      <c r="E20" s="2">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-2147483647</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2147483647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4294967295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="N12">
+      <c r="B25">
         <v>64</v>
       </c>
-      <c r="O12">
-        <v>8</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6" t="s">
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1118,7 +1142,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
